--- a/documentacao/planilhas/BackLog.xlsx
+++ b/documentacao/planilhas/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A2D08E-6686-4321-ABAB-A1272B090737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C25EE11-43C8-4BF4-8E57-A7A951F2E956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>Requisito</t>
-  </si>
-  <si>
-    <t>Fibonach</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>PESO</t>
   </si>
   <si>
     <t>ORDEM</t>
@@ -75,9 +75,6 @@
     <t>SPRINT 2</t>
   </si>
   <si>
-    <t>PESO</t>
-  </si>
-  <si>
     <t>PROTÓTIPO DAS TELAS</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>TESTE INTEGRADO ARDUÍNO</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
   </si>
   <si>
     <t>MANUAL DE INSTALAÇÃO</t>
@@ -183,18 +183,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -215,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -228,10 +222,339 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
       <top style="double">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -239,168 +562,117 @@
       <right style="double">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
       <top style="double">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D46"/>
+  <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -695,57 +967,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="46">
         <v>3</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="B4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="14">
         <v>7</v>
       </c>
     </row>
@@ -753,375 +1025,351 @@
       <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24">
-        <v>5</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24">
-        <v>5</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C7" s="22">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="C8" s="22">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24">
-        <v>5</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="C9" s="22">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24">
-        <v>5</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="C10" s="22">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="12"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15">
-        <v>5</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1</v>
-      </c>
-    </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="6"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="15">
-        <v>3</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16">
-        <v>13</v>
-      </c>
-      <c r="D21" s="16">
-        <v>4</v>
+      <c r="D21" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6">
+        <v>8</v>
+      </c>
+      <c r="D33" s="11">
         <v>19</v>
       </c>
-      <c r="C22" s="16">
-        <v>8</v>
-      </c>
-      <c r="D22" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="16">
-        <v>5</v>
-      </c>
-      <c r="D23" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="38">
+        <v>3</v>
+      </c>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="32">
+        <v>3</v>
+      </c>
+      <c r="D37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="32">
+        <v>13</v>
+      </c>
+      <c r="D38" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="32">
+        <v>13</v>
+      </c>
+      <c r="D39" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="34">
         <v>21</v>
       </c>
-      <c r="C24" s="16">
-        <v>3</v>
-      </c>
-      <c r="D24" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="16">
-        <v>8</v>
-      </c>
-      <c r="D25" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="16">
-        <v>5</v>
-      </c>
-      <c r="D26" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="16">
-        <v>5</v>
-      </c>
-      <c r="D27" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="16">
-        <v>5</v>
-      </c>
-      <c r="D28" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="6"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="15">
-        <v>5</v>
-      </c>
-      <c r="D30" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="6"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="15">
-        <v>5</v>
-      </c>
-      <c r="D32" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="15">
-        <v>8</v>
-      </c>
-      <c r="D34" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="15">
-        <v>3</v>
-      </c>
-      <c r="D35" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="15">
-        <v>5</v>
-      </c>
-      <c r="D36" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="15">
-        <v>8</v>
-      </c>
-      <c r="D37" s="16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="15">
-        <v>8</v>
-      </c>
-      <c r="D38" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="6"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="16">
-        <v>8</v>
-      </c>
-      <c r="D40" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="25">
-        <v>3</v>
-      </c>
-      <c r="D42" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="25">
-        <v>3</v>
-      </c>
-      <c r="D43" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="25">
-        <v>13</v>
-      </c>
-      <c r="D44" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="25">
-        <v>13</v>
-      </c>
-      <c r="D45" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="25">
-        <v>21</v>
-      </c>
-      <c r="D46" s="25">
+      <c r="D40" s="35">
         <v>5</v>
       </c>
     </row>

--- a/documentacao/planilhas/BackLog.xlsx
+++ b/documentacao/planilhas/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C25EE11-43C8-4BF4-8E57-A7A951F2E956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5855272C-67B6-4D64-9601-ADF34E583DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -537,17 +537,6 @@
       <left style="double">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="double">
         <color rgb="FF000000"/>
@@ -574,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,7 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,10 +655,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -956,7 +944,7 @@
   <dimension ref="B1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -967,13 +955,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
     </row>
@@ -981,10 +969,10 @@
       <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>3</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <v>1</v>
       </c>
     </row>
@@ -1088,10 +1076,10 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1099,7 +1087,7 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7">
@@ -1308,7 +1296,7 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -1319,7 +1307,7 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="38">
